--- a/Monolithic/assist_multi_drc/quotation.xlsx
+++ b/Monolithic/assist_multi_drc/quotation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Anexure 1</t>
   </si>
@@ -46,10 +46,13 @@
     <t>Column7</t>
   </si>
   <si>
-    <t>sunlife batteries</t>
-  </si>
-  <si>
-    <t>444-battery</t>
+    <t>pothies</t>
+  </si>
+  <si>
+    <t>kanchipuram-silk</t>
+  </si>
+  <si>
+    <t>aurelia</t>
   </si>
   <si>
     <t>Total</t>
@@ -120,13 +123,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -144,7 +147,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6134100" y="1143000"/>
+          <a:off x="6134100" y="1333500"/>
           <a:ext cx="1828800" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -158,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H13" totalsRowCount="1">
-  <autoFilter ref="B2:H12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H14" totalsRowCount="1">
+  <autoFilter ref="B2:H13"/>
   <tableColumns count="7">
     <tableColumn id="1" name="S.no" totalsRowLabel=" "/>
     <tableColumn id="2" name="Client" totalsRowLabel=" "/>
@@ -458,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H13"/>
+  <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,66 +509,86 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1000</v>
       </c>
       <c r="G3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
-        <v>10000</v>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
+      <c r="C10">
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <f>SUBTOTAL(109,[Quantity])</f>
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f>SUBTOTAL(109,[Price])</f>
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <f>SUBTOTAL(109,[Total price])</f>
         <v>0</v>
       </c>

--- a/Monolithic/assist_multi_drc/quotation.xlsx
+++ b/Monolithic/assist_multi_drc/quotation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Anexure 1</t>
   </si>
@@ -46,13 +46,10 @@
     <t>Column7</t>
   </si>
   <si>
-    <t>pothies</t>
-  </si>
-  <si>
-    <t>kanchipuram-silk</t>
-  </si>
-  <si>
-    <t>aurelia</t>
+    <t>sunlife batteries</t>
+  </si>
+  <si>
+    <t>444-battery</t>
   </si>
   <si>
     <t>Total</t>
@@ -123,13 +120,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -147,7 +144,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6134100" y="1333500"/>
+          <a:off x="6134100" y="1143000"/>
           <a:ext cx="1828800" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -161,8 +158,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H14" totalsRowCount="1">
-  <autoFilter ref="B2:H13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H13" totalsRowCount="1">
+  <autoFilter ref="B2:H12"/>
   <tableColumns count="7">
     <tableColumn id="1" name="S.no" totalsRowLabel=" "/>
     <tableColumn id="2" name="Client" totalsRowLabel=" "/>
@@ -461,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H14"/>
+  <dimension ref="B1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,77 +515,57 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
+      <c r="C9">
         <v>1000</v>
-      </c>
-      <c r="G4">
-        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
-        <v>3000</v>
+      <c r="C10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
         <v>17</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D13" t="s">
         <v>4</v>
       </c>
-      <c r="E14">
+      <c r="E13">
         <f>SUBTOTAL(109,[Quantity])</f>
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F13">
         <f>SUBTOTAL(109,[Price])</f>
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="G13">
         <f>SUBTOTAL(109,[Total price])</f>
         <v>0</v>
       </c>
